--- a/Requerimientos/Casos de uso Inicial/ExcelInventario.xlsx
+++ b/Requerimientos/Casos de uso Inicial/ExcelInventario.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Documentos\RunistacFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpramirez\Documents\5. DianaRamirez\Empresa\RUNISTAC\runistac.git\trunk\Requerimientos\Casos de uso Inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,9 +83,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -136,6 +144,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +244,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,7 +468,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,21 +478,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -769,5 +817,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requerimientos/Casos de uso Inicial/ExcelInventario.xlsx
+++ b/Requerimientos/Casos de uso Inicial/ExcelInventario.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpramirez\Documents\5. DianaRamirez\Empresa\RUNISTAC\runistac.git\trunk\Requerimientos\Casos de uso Inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Repositorio\RUNISTAC\trunk\Requerimientos\Casos de uso Inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventario CU" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fase</t>
   </si>
@@ -78,12 +78,24 @@
   </si>
   <si>
     <t>CUG0015-Parametrización Tipo Transportador</t>
+  </si>
+  <si>
+    <t>Fecha Entrega GrowData</t>
+  </si>
+  <si>
+    <t>Revisión Runt</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>CASOS DE USO FASE I -PROYECTO RUNISTAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -136,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -150,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,23 +265,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,23 +300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,19 +452,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -487,14 +487,17 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -507,11 +510,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -524,11 +524,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -541,11 +538,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -558,11 +552,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -575,11 +566,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -592,11 +580,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -609,11 +594,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -626,11 +608,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -643,11 +622,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -660,11 +636,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -677,11 +650,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -694,11 +664,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -711,11 +678,8 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -728,11 +692,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -745,77 +706,11 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
